--- a/vt_CANReg_ELC_V1p1.xlsx
+++ b/vt_CANReg_ELC_V1p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{F5A548F8-CA12-482E-BC87-5A864A6C0C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09A08A9-40BE-4E41-9DE8-52E46C4C8525}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{F5A548F8-CA12-482E-BC87-5A864A6C0C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4462F3-C0D4-4C21-B2E0-BF4BD214C8CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_ExistingStock" sheetId="4" r:id="rId1"/>
@@ -2210,11 +2210,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AI176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -7389,8 +7389,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:AJ62"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7464,7 +7464,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="42"/>
     </row>
